--- a/Data/bkt_calculations.xlsx
+++ b/Data/bkt_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\WhereWhenHowNoFoa_80_reviseKC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5BF3E-6AAD-4E9B-B8B0-D6A4F6B90B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8351A7-3129-4695-ADEF-D1100114229C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="1932" windowWidth="21312" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="612" windowWidth="32592" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>guess</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>&lt;= Get the predicted mastery here</t>
+  </si>
+  <si>
+    <t>Even a skill is marked as mastered, there's still chance a student make it wrong</t>
   </si>
 </sst>
 </file>
@@ -946,10 +949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -958,42 +961,42 @@
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="5">
-        <v>4.9399999999999999E-8</v>
+        <v>2.966E-7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5">
-        <v>0.13101249179999999</v>
+        <v>0.13386977380000001</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1007,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1028,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1045,344 +1048,464 @@
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2">
         <f>IF(C6=1,$B$3, 1-$B$3)</f>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="D7" s="2">
         <f>IF(D6=1,$B$3, 1-$B$3)</f>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="E7" s="2">
         <f>IF(E6=1,$B$3, 1-$B$3)</f>
-        <v>0.10251977600000001</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="F7" s="2">
         <f>IF(F6=1,$B$3, 1-$B$3)</f>
-        <v>0.10251977600000001</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:Q7" si="0">IF(G6=1,$B$3, 1-$B$3)</f>
-        <v>0.89748022399999994</v>
+        <f>IF(G6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="H7" s="2">
+        <f>IF(H6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f>IF(I6=1,$B$3, 1-$B$3)</f>
+        <v>0.92399460599999994</v>
+      </c>
+      <c r="J7" s="2">
+        <f>IF(J6=1,$B$3, 1-$B$3)</f>
+        <v>0.92399460599999994</v>
+      </c>
+      <c r="K7" s="2">
+        <f>IF(K6=1,$B$3, 1-$B$3)</f>
+        <v>0.92399460599999994</v>
+      </c>
+      <c r="L7" s="2">
+        <f>IF(L6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f>IF(M6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f>IF(N6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f>IF(O6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f>IF(P6=1,$B$3, 1-$B$3)</f>
+        <v>0.92399460599999994</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>IF(Q6=1,$B$3, 1-$B$3)</f>
+        <v>0.92399460599999994</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:S11" si="0">IF(R6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="1">IF(T6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:V7" si="2">IF(U6=1,$B$3, 1-$B$3)</f>
+        <v>7.6005394000000004E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6005394000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2">
         <f>IF(C6=1, 1-$B$4, $B$4)</f>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="D8" s="2">
         <f>IF(D6=1, 1-$B$4, $B$4)</f>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="E8" s="2">
         <f>IF(E6=1, 1-$B$4, $B$4)</f>
-        <v>0.89066657569999996</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="F8" s="2">
         <f>IF(F6=1, 1-$B$4, $B$4)</f>
-        <v>0.89066657569999996</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:Q8" si="1">IF(G6=1, 1-$B$4, $B$4)</f>
-        <v>0.1093334243</v>
+        <f>IF(G6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89066657569999996</v>
+        <f>IF(H6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(I6=1, 1-$B$4, $B$4)</f>
+        <v>0.17294744440000001</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(J6=1, 1-$B$4, $B$4)</f>
+        <v>0.17294744440000001</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(K6=1, 1-$B$4, $B$4)</f>
+        <v>0.17294744440000001</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(L6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(M6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(N6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(O6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(P6=1, 1-$B$4, $B$4)</f>
+        <v>0.17294744440000001</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1093334243</v>
+        <f>IF(Q6=1, 1-$B$4, $B$4)</f>
+        <v>0.17294744440000001</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:V8" si="3">IF(R6=1, 1-$B$4, $B$4)</f>
+        <v>0.82705255560000002</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82705255560000002</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82705255560000002</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82705255560000002</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82705255560000002</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <f>(1-$B$2)*C7*(1-B11)</f>
-        <v>0.77989906498552208</v>
+        <v>0.80029941973348151</v>
       </c>
       <c r="D9" s="2">
         <f>(1-$B$2)*D7*(1-C11)</f>
-        <v>0.67772257453021278</v>
+        <v>0.69316368455236732</v>
       </c>
       <c r="E9" s="2">
         <f>(1-$B$2)*E7*(1-D11)</f>
-        <v>7.6020477948864809E-2</v>
+        <v>0.67367450825149866</v>
       </c>
       <c r="F9" s="2">
         <f>(1-$B$2)*F7*(1-E11)</f>
-        <v>3.1048333565976843E-2</v>
+        <v>0.66960596893484869</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:Q9" si="2">(1-$B$2)*G7*(1-F11)</f>
-        <v>3.9310106153926702E-2</v>
+        <f>(1-$B$2)*G7*(1-F11)</f>
+        <v>5.5008253813282428E-2</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3494514363875597E-2</v>
+        <f>(1-$B$2)*H7*(1-G11)</f>
+        <v>1.8153784194442406E-2</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>2.6834997689026027E-2</v>
+        <f>(1-$B$2)*I7*(1-H11)</f>
+        <v>2.343528578763239E-2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15337670577014101</v>
+        <f>(1-$B$2)*J7*(1-I11)</f>
+        <v>9.6210150196861757E-2</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45253049859403177</v>
+        <f>(1-$B$2)*K7*(1-J11)</f>
+        <v>0.29250095745912374</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.62283312142687519</v>
+        <f>(1-$B$2)*L7*(1-K11)</f>
+        <v>4.3034143440983851E-2</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.6575226779624207</v>
+        <f>(1-$B$2)*M7*(1-L11)</f>
+        <v>8.4293016871178419E-3</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.66269703755325982</v>
+        <f>(1-$B$2)*N7*(1-M11)</f>
+        <v>7.5922500480022563E-4</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.66342894272118991</v>
+        <f>(1-$B$2)*O7*(1-N11)</f>
+        <v>6.107133563451653E-5</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.66353167714150207</v>
+        <f>(1-$B$2)*P7*(1-O11)</f>
+        <v>5.9145671440381692E-5</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.66354608193971609</v>
+        <f>(1-$B$2)*Q7*(1-P11)</f>
+        <v>2.7360377696933151E-4</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9:V9" si="4">(1-$B$2)*R7*(1-Q11)</f>
+        <v>1.0398992239132211E-4</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2891346480122967E-6</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5986236307669765E-7</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2523276784414159E-8</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1806771382608182E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <f>$B$2*C7*(1-B11)+C8*B11</f>
-        <v>0.11758112008002596</v>
+        <v>0.1236949635059303</v>
       </c>
       <c r="D10" s="2">
         <f>$B$2*D7*(1-C11)+D8*C11</f>
-        <v>0.11650056921520122</v>
+        <v>0.13028837169787577</v>
       </c>
       <c r="E10" s="2">
         <f>$B$2*E7*(1-D11)+E8*D11</f>
-        <v>0.14210855914265241</v>
+        <v>0.13148778564187108</v>
       </c>
       <c r="F10" s="2">
         <f>$B$2*F7*(1-E11)+F8*E11</f>
-        <v>0.584940018611107</v>
+        <v>0.13173817399655313</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:Q10" si="3">$B$2*G7*(1-F11)+G8*F11</f>
-        <v>0.10974914193731262</v>
+        <f>$B$2*G7*(1-F11)+G8*F11</f>
+        <v>0.14446666639120115</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.65932092322948099</v>
+        <f>$B$2*H7*(1-G11)+H8*G11</f>
+        <v>0.60178605343235581</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10961721345571708</v>
+        <f>$B$2*I7*(1-H11)+I8*H11</f>
+        <v>0.17150517674736718</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11095543471869201</v>
+        <f>$B$2*J7*(1-I11)+J8*I11</f>
+        <v>0.16702642475717111</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11411908702374787</v>
+        <f>$B$2*K7*(1-J11)+K8*J11</f>
+        <v>0.15494618454209552</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11592009472683042</v>
+        <f>$B$2*L7*(1-K11)+L8*K11</f>
+        <v>0.29305089165497716</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11628694849277835</v>
+        <f>$B$2*M7*(1-L11)+M8*L11</f>
+        <v>0.72245511814923602</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11634166909147847</v>
+        <f>$B$2*N7*(1-M11)+N8*M11</f>
+        <v>0.81763149168529736</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11634940923560218</v>
+        <f>$B$2*O7*(1-N11)+O8*N11</f>
+        <v>0.82629473419958344</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11635049568676349</v>
+        <f>$B$2*P7*(1-O11)+P8*O11</f>
+        <v>0.17294380442353527</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11635064802236533</v>
+        <f>$B$2*Q7*(1-P11)+Q8*P11</f>
+        <v>0.17293060612114405</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:V11" si="5">$B$2*R7*(1-Q11)+R8*Q11</f>
+        <v>0.82576216645430611</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82694969746595182</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8270443675062753</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82705190384966976</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82705250372285388</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3">
         <f>B1</f>
-        <v>4.9399999999999999E-8</v>
+        <v>2.966E-7</v>
       </c>
       <c r="C11" s="1">
         <f>C10/(C10+C9)</f>
-        <v>0.1310124970296011</v>
+        <v>0.13386982188384178</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:G11" si="4">D10/(D10+D9)</f>
-        <v>0.14668493374016453</v>
+        <f>D10/(D10+D9)</f>
+        <v>0.15822217056712501</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.65148849982329493</v>
+        <f>E10/(E10+E9)</f>
+        <v>0.16330594047823657</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.94959590801312577</v>
+        <f>F10/(F10+F9)</f>
+        <v>0.16439650200055236</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.73627864988380365</v>
+        <f>G10/(G10+G9)</f>
+        <v>0.72423473709430264</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11" si="5">H10/(H10+H9)</f>
-        <v>0.96559170594226151</v>
+        <f>H10/(H10+H9)</f>
+        <v>0.97071686139103897</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11" si="6">I10/(I10+I9)</f>
-        <v>0.80333775859036449</v>
+        <f>I10/(I10+I9)</f>
+        <v>0.87978234234760355</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:K11" si="7">J10/(J10+J9)</f>
-        <v>0.41975763716625841</v>
+        <f>J10/(J10+J9)</f>
+        <v>0.63451070500494755</v>
       </c>
       <c r="K11" s="1">
+        <f>K10/(K10+K9)</f>
+        <v>0.34628936023391405</v>
+      </c>
+      <c r="L11" s="1">
+        <f>L10/(L10+L9)</f>
+        <v>0.87195459795257924</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M10/(M10+M9)</f>
+        <v>0.98846698402873989</v>
+      </c>
+      <c r="N11" s="1">
+        <f>N10/(N10+N9)</f>
+        <v>0.99907229518942886</v>
+      </c>
+      <c r="O11" s="1">
+        <f>O10/(O10+O9)</f>
+        <v>0.99992609559317502</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11" si="6">P10/(P10+P9)</f>
+        <v>0.99965812333600146</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:V11" si="7">Q10/(Q10+Q9)</f>
+        <v>0.99842033991477297</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="7"/>
-        <v>0.20139269474508054</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11" si="8">L10/(L10+L9)</f>
-        <v>0.15691315068699746</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" ref="M11" si="9">M10/(M10+M9)</f>
-        <v>0.15027849811779379</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11:O11" si="10">N10/(N10+N9)</f>
-        <v>0.14934003676473712</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="10"/>
-        <v>0.14920830892988057</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11" si="11">P10/(P10+P9)</f>
-        <v>0.14918983885067535</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11" si="12">Q10/(Q10+Q9)</f>
-        <v>0.14918724948112336</v>
-      </c>
-      <c r="R11" t="s">
+        <v>0.99987408380693599</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99998997635335496</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9999992021445735</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99999993649337693</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99999999494508862</v>
+      </c>
+      <c r="W11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/bkt_calculations.xlsx
+++ b/Data/bkt_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8351A7-3129-4695-ADEF-D1100114229C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6652DB0-A57D-4295-92C2-C8DDBB8A69FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="612" windowWidth="32592" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6648" yWindow="648" windowWidth="19284" windowHeight="12756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -82,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -586,13 +589,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,8 +961,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -966,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="5">
-        <v>2.966E-7</v>
+        <v>4.9399999999999999E-8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -974,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5">
-        <v>0.13386977380000001</v>
+        <v>0.13101249179999999</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -985,15 +995,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>7.6005394000000004E-2</v>
-      </c>
+        <v>0.10251977600000001</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>0.17294744440000001</v>
+        <v>0.1093334243</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1016,22 +1030,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="J6" s="5">
         <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -1073,84 +1087,84 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2">
-        <f>IF(C6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" ref="C7:Q7" si="0">IF(C6=1,$B$3, 1-$B$3)</f>
+        <v>0.89748022399999994</v>
       </c>
       <c r="D7" s="2">
-        <f>IF(D6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="E7" s="2">
-        <f>IF(E6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="F7" s="2">
-        <f>IF(F6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="G7" s="2">
-        <f>IF(G6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(H6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="I7" s="2">
-        <f>IF(I6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="J7" s="2">
-        <f>IF(J6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="K7" s="2">
-        <f>IF(K6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="L7" s="2">
-        <f>IF(L6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="M7" s="2">
-        <f>IF(M6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="N7" s="2">
-        <f>IF(N6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="O7" s="2">
-        <f>IF(O6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="P7" s="2">
-        <f>IF(P6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="Q7" s="2">
-        <f>IF(Q6=1,$B$3, 1-$B$3)</f>
-        <v>0.92399460599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.89748022399999994</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:S11" si="0">IF(R6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" ref="R7:S7" si="1">IF(R6=1,$B$3, 1-$B$3)</f>
+        <v>0.10251977600000001</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10251977600000001</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" ref="T7" si="1">IF(T6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" ref="T7" si="2">IF(T6=1,$B$3, 1-$B$3)</f>
+        <v>0.10251977600000001</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" ref="U7:V7" si="2">IF(U6=1,$B$3, 1-$B$3)</f>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" ref="U7:V7" si="3">IF(U6=1,$B$3, 1-$B$3)</f>
+        <v>0.10251977600000001</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="2"/>
-        <v>7.6005394000000004E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10251977600000001</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1159,84 +1173,84 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2">
-        <f>IF(C6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" ref="C8:Q8" si="4">IF(C6=1, 1-$B$4, $B$4)</f>
+        <v>0.1093334243</v>
       </c>
       <c r="D8" s="2">
-        <f>IF(D6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="E8" s="2">
-        <f>IF(E6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="F8" s="2">
-        <f>IF(F6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="G8" s="2">
-        <f>IF(G6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(H6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="I8" s="2">
-        <f>IF(I6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="J8" s="2">
-        <f>IF(J6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="K8" s="2">
-        <f>IF(K6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="L8" s="2">
-        <f>IF(L6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="M8" s="2">
-        <f>IF(M6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="N8" s="2">
-        <f>IF(N6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="O8" s="2">
-        <f>IF(O6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="4"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="P8" s="2">
-        <f>IF(P6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="Q8" s="2">
-        <f>IF(Q6=1, 1-$B$4, $B$4)</f>
-        <v>0.17294744440000001</v>
+        <f t="shared" si="4"/>
+        <v>0.1093334243</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:V8" si="3">IF(R6=1, 1-$B$4, $B$4)</f>
-        <v>0.82705255560000002</v>
+        <f t="shared" ref="R8:V8" si="5">IF(R6=1, 1-$B$4, $B$4)</f>
+        <v>0.89066657569999996</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="5"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="5"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="5"/>
+        <v>0.89066657569999996</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82705255560000002</v>
+        <f t="shared" si="5"/>
+        <v>0.89066657569999996</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1245,84 +1259,84 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
-        <f>(1-$B$2)*C7*(1-B11)</f>
-        <v>0.80029941973348151</v>
+        <f t="shared" ref="C9:Q9" si="6">(1-$B$2)*C7*(1-B11)</f>
+        <v>0.77989906498552208</v>
       </c>
       <c r="D9" s="2">
-        <f>(1-$B$2)*D7*(1-C11)</f>
-        <v>0.69316368455236732</v>
+        <f t="shared" si="6"/>
+        <v>0.67772257453021278</v>
       </c>
       <c r="E9" s="2">
-        <f>(1-$B$2)*E7*(1-D11)</f>
-        <v>0.67367450825149866</v>
+        <f t="shared" si="6"/>
+        <v>0.66549965518978738</v>
       </c>
       <c r="F9" s="2">
-        <f>(1-$B$2)*F7*(1-E11)</f>
-        <v>0.66960596893484869</v>
+        <f t="shared" si="6"/>
+        <v>0.66382128137833074</v>
       </c>
       <c r="G9" s="2">
-        <f>(1-$B$2)*G7*(1-F11)</f>
-        <v>5.5008253813282428E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.66358666785543918</v>
       </c>
       <c r="H9" s="2">
-        <f>(1-$B$2)*H7*(1-G11)</f>
-        <v>1.8153784194442406E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.66355379082881727</v>
       </c>
       <c r="I9" s="2">
-        <f>(1-$B$2)*I7*(1-H11)</f>
-        <v>2.343528578763239E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.5797674080426508E-2</v>
       </c>
       <c r="J9" s="2">
-        <f>(1-$B$2)*J7*(1-I11)</f>
-        <v>9.6210150196861757E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.0680098393390004E-2</v>
       </c>
       <c r="K9" s="2">
-        <f>(1-$B$2)*K7*(1-J11)</f>
-        <v>0.29250095745912374</v>
+        <f t="shared" si="6"/>
+        <v>3.8639537733383328E-2</v>
       </c>
       <c r="L9" s="2">
-        <f>(1-$B$2)*L7*(1-K11)</f>
-        <v>4.3034143440983851E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.20309083631833835</v>
       </c>
       <c r="M9" s="2">
-        <f>(1-$B$2)*M7*(1-L11)</f>
-        <v>8.4293016871178419E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.7516364349903551E-2</v>
       </c>
       <c r="N9" s="2">
-        <f>(1-$B$2)*N7*(1-M11)</f>
-        <v>7.5922500480022563E-4</v>
+        <f t="shared" si="6"/>
+        <v>1.3419652823060731E-2</v>
       </c>
       <c r="O9" s="2">
-        <f>(1-$B$2)*O7*(1-N11)</f>
-        <v>6.107133563451653E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.5487300644713368E-3</v>
       </c>
       <c r="P9" s="2">
-        <f>(1-$B$2)*P7*(1-O11)</f>
-        <v>5.9145671440381692E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.3773101597740077E-3</v>
       </c>
       <c r="Q9" s="2">
-        <f>(1-$B$2)*Q7*(1-P11)</f>
-        <v>2.7360377696933151E-4</v>
+        <f t="shared" si="6"/>
+        <v>9.7011519414769414E-3</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" ref="R9:V9" si="4">(1-$B$2)*R7*(1-Q11)</f>
-        <v>1.0398992239132211E-4</v>
+        <f t="shared" ref="R9:V9" si="7">(1-$B$2)*R7*(1-Q11)</f>
+        <v>7.2543284008135065E-3</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="4"/>
-        <v>8.2891346480122967E-6</v>
+        <f t="shared" si="7"/>
+        <v>7.8195417685591605E-4</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5986236307669765E-7</v>
+        <f t="shared" si="7"/>
+        <v>7.8826756099908385E-5</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2523276784414159E-8</v>
+        <f t="shared" si="7"/>
+        <v>7.8907785304658272E-6</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="4"/>
-        <v>4.1806771382608182E-9</v>
+        <f t="shared" si="7"/>
+        <v>7.8933238542195567E-7</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1331,84 +1345,84 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
-        <f>$B$2*C7*(1-B11)+C8*B11</f>
-        <v>0.1236949635059303</v>
+        <f t="shared" ref="C10:Q10" si="8">$B$2*C7*(1-B11)+C8*B11</f>
+        <v>0.11758112008002596</v>
       </c>
       <c r="D10" s="2">
-        <f>$B$2*D7*(1-C11)+D8*C11</f>
-        <v>0.13028837169787577</v>
+        <f t="shared" si="8"/>
+        <v>0.11650056921520122</v>
       </c>
       <c r="E10" s="2">
-        <f>$B$2*E7*(1-D11)+E8*D11</f>
-        <v>0.13148778564187108</v>
+        <f t="shared" si="8"/>
+        <v>0.11637130771869525</v>
       </c>
       <c r="F10" s="2">
-        <f>$B$2*F7*(1-E11)+F8*E11</f>
-        <v>0.13173817399655313</v>
+        <f t="shared" si="8"/>
+        <v>0.11635355834929154</v>
       </c>
       <c r="G10" s="2">
-        <f>$B$2*G7*(1-F11)+G8*F11</f>
-        <v>0.14446666639120115</v>
+        <f t="shared" si="8"/>
+        <v>0.11635107723211936</v>
       </c>
       <c r="H10" s="2">
-        <f>$B$2*H7*(1-G11)+H8*G11</f>
-        <v>0.60178605343235581</v>
+        <f t="shared" si="8"/>
+        <v>0.11635072954646886</v>
       </c>
       <c r="I10" s="2">
-        <f>$B$2*I7*(1-H11)+I8*H11</f>
-        <v>0.17150517674736718</v>
+        <f t="shared" si="8"/>
+        <v>0.14430246302670413</v>
       </c>
       <c r="J10" s="2">
-        <f>$B$2*J7*(1-I11)+J8*I11</f>
-        <v>0.16702642475717111</v>
+        <f t="shared" si="8"/>
+        <v>0.58856595464644301</v>
       </c>
       <c r="K10" s="2">
-        <f>$B$2*K7*(1-J11)+K8*J11</f>
-        <v>0.15494618454209552</v>
+        <f t="shared" si="8"/>
+        <v>0.10974205044998993</v>
       </c>
       <c r="L10" s="2">
-        <f>$B$2*L7*(1-K11)+L8*K11</f>
-        <v>0.29305089165497716</v>
+        <f t="shared" si="8"/>
+        <v>0.11148117842469021</v>
       </c>
       <c r="M10" s="2">
-        <f>$B$2*M7*(1-L11)+M8*L11</f>
-        <v>0.72245511814923602</v>
+        <f t="shared" si="8"/>
+        <v>0.32431476130711956</v>
       </c>
       <c r="N10" s="2">
-        <f>$B$2*N7*(1-M11)+N8*M11</f>
-        <v>0.81763149168529736</v>
+        <f t="shared" si="8"/>
+        <v>0.75852601343103365</v>
       </c>
       <c r="O10" s="2">
-        <f>$B$2*O7*(1-N11)+O8*N11</f>
-        <v>0.82629473419958344</v>
+        <f t="shared" si="8"/>
+        <v>0.87541654917394718</v>
       </c>
       <c r="P10" s="2">
-        <f>$B$2*P7*(1-O11)+P8*O11</f>
-        <v>0.17294380442353527</v>
+        <f t="shared" si="8"/>
+        <v>0.10934798981969679</v>
       </c>
       <c r="Q10" s="2">
-        <f>$B$2*Q7*(1-P11)+Q8*P11</f>
-        <v>0.17293060612114405</v>
+        <f t="shared" si="8"/>
+        <v>0.10943601725532119</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" ref="R10:V11" si="5">$B$2*R7*(1-Q11)+R8*Q11</f>
-        <v>0.82576216645430611</v>
+        <f t="shared" ref="R10:V10" si="9">$B$2*R7*(1-Q11)+R8*Q11</f>
+        <v>0.81923469542661786</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82694969746595182</v>
+        <f t="shared" si="9"/>
+        <v>0.88296683369022566</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8270443675062753</v>
+        <f t="shared" si="9"/>
+        <v>0.88989038483945992</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82705190384966976</v>
+        <f t="shared" si="9"/>
+        <v>0.89058887682615406</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82705250372285388</v>
+        <f t="shared" si="9"/>
+        <v>0.89065880330628733</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1417,93 +1431,182 @@
       </c>
       <c r="B11" s="3">
         <f>B1</f>
-        <v>2.966E-7</v>
+        <v>4.9399999999999999E-8</v>
       </c>
       <c r="C11" s="1">
-        <f>C10/(C10+C9)</f>
-        <v>0.13386982188384178</v>
+        <f t="shared" ref="C11:O11" si="10">C10/(C10+C9)</f>
+        <v>0.1310124970296011</v>
       </c>
       <c r="D11" s="1">
-        <f>D10/(D10+D9)</f>
-        <v>0.15822217056712501</v>
+        <f t="shared" si="10"/>
+        <v>0.14668493374016453</v>
       </c>
       <c r="E11" s="1">
-        <f>E10/(E10+E9)</f>
-        <v>0.16330594047823657</v>
+        <f t="shared" si="10"/>
+        <v>0.14883697341285768</v>
       </c>
       <c r="F11" s="1">
-        <f>F10/(F10+F9)</f>
-        <v>0.16439650200055236</v>
+        <f t="shared" si="10"/>
+        <v>0.14913779889378817</v>
       </c>
       <c r="G11" s="1">
-        <f>G10/(G10+G9)</f>
-        <v>0.72423473709430264</v>
+        <f t="shared" si="10"/>
+        <v>0.14917995438091972</v>
       </c>
       <c r="H11" s="1">
-        <f>H10/(H10+H9)</f>
-        <v>0.97071686139103897</v>
+        <f t="shared" si="10"/>
+        <v>0.14918586379071308</v>
       </c>
       <c r="I11" s="1">
-        <f>I10/(I10+I9)</f>
-        <v>0.87978234234760355</v>
+        <f t="shared" si="10"/>
+        <v>0.65562186795216282</v>
       </c>
       <c r="J11" s="1">
-        <f>J10/(J10+J9)</f>
-        <v>0.63451070500494755</v>
+        <f t="shared" si="10"/>
+        <v>0.95045572233721365</v>
       </c>
       <c r="K11" s="1">
-        <f>K10/(K10+K9)</f>
-        <v>0.34628936023391405</v>
+        <f t="shared" si="10"/>
+        <v>0.73959344817342332</v>
       </c>
       <c r="L11" s="1">
-        <f>L10/(L10+L9)</f>
-        <v>0.87195459795257924</v>
+        <f t="shared" si="10"/>
+        <v>0.35439000673902393</v>
       </c>
       <c r="M11" s="1">
-        <f>M10/(M10+M9)</f>
-        <v>0.98846698402873989</v>
+        <f t="shared" si="10"/>
+        <v>0.84936700943137056</v>
       </c>
       <c r="N11" s="1">
-        <f>N10/(N10+N9)</f>
-        <v>0.99907229518942886</v>
+        <f t="shared" si="10"/>
+        <v>0.98261580651371461</v>
       </c>
       <c r="O11" s="1">
-        <f>O10/(O10+O9)</f>
-        <v>0.99992609559317502</v>
+        <f t="shared" si="10"/>
+        <v>0.99823398930249974</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11" si="6">P10/(P10+P9)</f>
-        <v>0.99965812333600146</v>
+        <f t="shared" ref="P11" si="11">P10/(P10+P9)</f>
+        <v>0.98756101667794649</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:V11" si="7">Q10/(Q10+Q9)</f>
-        <v>0.99842033991477297</v>
+        <f t="shared" ref="Q11:V11" si="12">Q10/(Q10+Q9)</f>
+        <v>0.91857157588282146</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.99987408380693599</v>
+        <f t="shared" si="12"/>
+        <v>0.99122271658585481</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.99998997635335496</v>
+        <f t="shared" si="12"/>
+        <v>0.99911518500778584</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.9999992021445735</v>
+        <f t="shared" si="12"/>
+        <v>0.99991142754707363</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.99999993649337693</v>
+        <f t="shared" si="12"/>
+        <v>0.999991139897631</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.99999999494508862</v>
+        <f t="shared" si="12"/>
+        <v>0.99999911376648054</v>
       </c>
       <c r="W11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>

--- a/Data/bkt_calculations.xlsx
+++ b/Data/bkt_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6652DB0-A57D-4295-92C2-C8DDBB8A69FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DEE31-D2C0-4496-9A2A-911F87475654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6648" yWindow="648" windowWidth="19284" windowHeight="12756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="1032" windowWidth="26928" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -962,7 +962,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C17" sqref="C17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -1054,13 +1054,13 @@
         <v>1</v>
       </c>
       <c r="O6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.10251977600000001</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.10251977600000001</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>0.89748022399999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.10251977600000001</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>0.89748022399999994</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.10251977600000001</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" ref="R7:S7" si="1">IF(R6=1,$B$3, 1-$B$3)</f>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.89066657569999996</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.89066657569999996</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.1093334243</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.89066657569999996</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="4"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.1093334243</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.89066657569999996</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:V8" si="5">IF(R6=1, 1-$B$4, $B$4)</f>
@@ -1272,71 +1272,71 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="6"/>
-        <v>0.66382128137833074</v>
+        <v>7.5828756167600458E-2</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="6"/>
-        <v>0.66358666785543918</v>
+        <v>3.0731072403339187E-2</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="6"/>
-        <v>0.66355379082881727</v>
+        <v>3.8731942051066739E-2</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="6"/>
-        <v>7.5797674080426508E-2</v>
+        <v>2.3240058136164365E-2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="6"/>
-        <v>3.0680098393390004E-2</v>
+        <v>2.6457138002144595E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="6"/>
-        <v>3.8639537733383328E-2</v>
+        <v>0.1516413927118283</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="6"/>
-        <v>0.20309083631833835</v>
+        <v>5.1449341818652017E-2</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="6"/>
-        <v>5.7516364349903551E-2</v>
+        <v>1.0524658981406865E-2</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="6"/>
-        <v>1.3419652823060731E-2</v>
+        <v>1.1756212818001134E-3</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="6"/>
-        <v>1.5487300644713368E-3</v>
+        <v>1.0415782091210094E-3</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1.3773101597740077E-3</v>
+        <v>7.3589565921482678E-3</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="6"/>
-        <v>9.7011519414769414E-3</v>
+        <v>5.6144262712990263E-3</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ref="R9:V9" si="7">(1-$B$2)*R7*(1-Q11)</f>
-        <v>7.2543284008135065E-3</v>
+        <v>5.9474687631731011E-4</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="7"/>
-        <v>7.8195417685591605E-4</v>
+        <v>5.9842729663496888E-5</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="7"/>
-        <v>7.8826756099908385E-5</v>
+        <v>5.9892941910325551E-6</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="7"/>
-        <v>7.8907785304658272E-6</v>
+        <v>5.9911129909227611E-7</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="7"/>
-        <v>7.8933238542195567E-7</v>
+        <v>5.9926114829977482E-8</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1358,71 +1358,71 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11635355834929154</v>
+        <v>0.14399640410477732</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11635107723211936</v>
+        <v>0.58806402405072644</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11635072954646886</v>
+        <v>0.10974302765683018</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="8"/>
-        <v>0.14430246302670413</v>
+        <v>0.66182650138757038</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="8"/>
-        <v>0.58856595464644301</v>
+        <v>0.10961321746202399</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10974205044998993</v>
+        <v>0.11093708319753928</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11148117842469021</v>
+        <v>0.3840554847929315</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="8"/>
-        <v>0.32431476130711956</v>
+        <v>0.7870324225792612</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="8"/>
-        <v>0.75852601343103365</v>
+        <v>0.87909047464577028</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="8"/>
-        <v>0.87541654917394718</v>
+        <v>0.10934443934102982</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10934798981969679</v>
+        <v>0.10941124774915567</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10943601725532119</v>
+        <v>0.83538247453218006</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ref="R10:V10" si="9">$B$2*R7*(1-Q11)+R8*Q11</f>
-        <v>0.81923469542661786</v>
+        <v>0.88481022548882104</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="9"/>
-        <v>0.88296683369022566</v>
+        <v>0.89007731664466472</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="9"/>
-        <v>0.88989038483945992</v>
+        <v>0.89060760035149933</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89058887682615406</v>
+        <v>0.89066067637421509</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89065880330628733</v>
+        <v>0.89066598561986798</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1447,71 +1447,71 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="10"/>
-        <v>0.14913779889378817</v>
+        <v>0.65504969461346618</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="10"/>
-        <v>0.14917995438091972</v>
+        <v>0.95033723993703234</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="10"/>
-        <v>0.14918586379071308</v>
+        <v>0.73913487150550528</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="10"/>
-        <v>0.65562186795216282</v>
+        <v>0.96607620411026762</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="10"/>
-        <v>0.95045572233721365</v>
+        <v>0.80556280674146141</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="10"/>
-        <v>0.73959344817342332</v>
+        <v>0.42249115360023143</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="10"/>
-        <v>0.35439000673902393</v>
+        <v>0.88186275174272988</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="10"/>
-        <v>0.84936700943137056</v>
+        <v>0.98680387996704622</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="10"/>
-        <v>0.98261580651371461</v>
+        <v>0.99866447056493601</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="10"/>
-        <v>0.99823398930249974</v>
+        <v>0.9905642197061072</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ref="P11" si="11">P10/(P10+P9)</f>
-        <v>0.98756101667794649</v>
+        <v>0.93697915805097842</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:V11" si="12">Q10/(Q10+Q9)</f>
-        <v>0.91857157588282146</v>
+        <v>0.99332408209122403</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99122271658585481</v>
+        <v>0.99932827700896165</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99911518500778584</v>
+        <v>0.99993277133862657</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99991142754707363</v>
+        <v>0.99999327509229519</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="12"/>
-        <v>0.999991139897631</v>
+        <v>0.9999993273410267</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99999911376648054</v>
+        <v>0.99999993271763854</v>
       </c>
       <c r="W11" t="s">
         <v>13</v>
@@ -1531,17 +1531,36 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="C15">
+        <v>0.1310124970296011</v>
+      </c>
+      <c r="D15">
+        <v>0.14668493374016453</v>
+      </c>
+      <c r="E15">
+        <v>0.65148849982329493</v>
+      </c>
+      <c r="F15">
+        <v>0.94959590801312577</v>
+      </c>
+      <c r="G15">
+        <v>0.99472299318753021</v>
+      </c>
+      <c r="H15">
+        <v>0.99946969415598019</v>
+      </c>
+      <c r="I15">
+        <v>0.99623161876913369</v>
+      </c>
+      <c r="J15">
+        <v>0.97383021775343137</v>
+      </c>
+      <c r="K15">
+        <v>0.84295215286624348</v>
+      </c>
+      <c r="L15">
+        <v>0.999730253533889</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
@@ -1556,13 +1575,27 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17">
+        <v>0.1310124970296011</v>
+      </c>
+      <c r="D17">
+        <v>0.14668493374016453</v>
+      </c>
+      <c r="E17">
+        <v>0.14883697341285768</v>
+      </c>
+      <c r="F17">
+        <v>0.65504969461346618</v>
+      </c>
+      <c r="G17">
+        <v>0.95033723993703234</v>
+      </c>
+      <c r="H17">
+        <v>0.73913487150550528</v>
+      </c>
+      <c r="I17">
+        <v>0.96607620411026762</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>

--- a/Data/bkt_calculations.xlsx
+++ b/Data/bkt_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DEE31-D2C0-4496-9A2A-911F87475654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFFFF5-4852-48EA-BF58-BA39EE74DBA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="1032" windowWidth="26928" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="1020" windowWidth="24888" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>guess</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Even a skill is marked as mastered, there's still chance a student make it wrong</t>
+  </si>
+  <si>
+    <t>T6R1C0</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -603,6 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,7 +966,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:I17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -975,16 +979,19 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5">
-        <v>4.9399999999999999E-8</v>
+      <c r="B1" s="9">
+        <v>2.966E-7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.13101249179999999</v>
+      <c r="B2" s="9">
+        <v>0.13386977380000001</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -994,8 +1001,8 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.10251977600000001</v>
+      <c r="B3" s="9">
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1007,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1027,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
@@ -1054,13 +1061,13 @@
         <v>1</v>
       </c>
       <c r="O6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
@@ -1088,83 +1095,83 @@
       <c r="B7" s="3"/>
       <c r="C7" s="2">
         <f t="shared" ref="C7:Q7" si="0">IF(C6=1,$B$3, 1-$B$3)</f>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>0.89748022399999994</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>0.10251977600000001</v>
+        <v>0.92399460599999994</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" ref="R7:S7" si="1">IF(R6=1,$B$3, 1-$B$3)</f>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="1"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" ref="T7" si="2">IF(T6=1,$B$3, 1-$B$3)</f>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" ref="U7:V7" si="3">IF(U6=1,$B$3, 1-$B$3)</f>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="3"/>
-        <v>0.10251977600000001</v>
+        <v>7.6005394000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1174,83 +1181,83 @@
       <c r="B8" s="3"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:Q8" si="4">IF(C6=1, 1-$B$4, $B$4)</f>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>0.1093334243</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>0.89066657569999996</v>
+        <v>0.17294744440000001</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:V8" si="5">IF(R6=1, 1-$B$4, $B$4)</f>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="5"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="5"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="5"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="5"/>
-        <v>0.89066657569999996</v>
+        <v>0.82705255560000002</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1260,83 +1267,83 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <f t="shared" ref="C9:Q9" si="6">(1-$B$2)*C7*(1-B11)</f>
-        <v>0.77989906498552208</v>
+        <v>0.80029941973348151</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>0.67772257453021278</v>
+        <v>0.69316368455236732</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="6"/>
-        <v>0.66549965518978738</v>
+        <v>0.67367450825149866</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="6"/>
-        <v>7.5828756167600458E-2</v>
+        <v>0.66960596893484869</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="6"/>
-        <v>3.0731072403339187E-2</v>
+        <v>5.5008253813282428E-2</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="6"/>
-        <v>3.8731942051066739E-2</v>
+        <v>1.8153784194442406E-2</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="6"/>
-        <v>2.3240058136164365E-2</v>
+        <v>2.343528578763239E-2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="6"/>
-        <v>2.6457138002144595E-2</v>
+        <v>9.6210150196861757E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="6"/>
-        <v>0.1516413927118283</v>
+        <v>0.29250095745912374</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="6"/>
-        <v>5.1449341818652017E-2</v>
+        <v>4.3034143440983851E-2</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="6"/>
-        <v>1.0524658981406865E-2</v>
+        <v>8.4293016871178419E-3</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="6"/>
-        <v>1.1756212818001134E-3</v>
+        <v>7.5922500480022563E-4</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="6"/>
-        <v>1.0415782091210094E-3</v>
+        <v>6.107133563451653E-5</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>7.3589565921482678E-3</v>
+        <v>5.9145671440381692E-5</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="6"/>
-        <v>5.6144262712990263E-3</v>
+        <v>2.7360377696933151E-4</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ref="R9:V9" si="7">(1-$B$2)*R7*(1-Q11)</f>
-        <v>5.9474687631731011E-4</v>
+        <v>1.0398992239132211E-4</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="7"/>
-        <v>5.9842729663496888E-5</v>
+        <v>8.2891346480122967E-6</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="7"/>
-        <v>5.9892941910325551E-6</v>
+        <v>6.5986236307669765E-7</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="7"/>
-        <v>5.9911129909227611E-7</v>
+        <v>5.2523276784414159E-8</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="7"/>
-        <v>5.9926114829977482E-8</v>
+        <v>4.1806771382608182E-9</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1346,83 +1353,83 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <f t="shared" ref="C10:Q10" si="8">$B$2*C7*(1-B11)+C8*B11</f>
-        <v>0.11758112008002596</v>
+        <v>0.1236949635059303</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11650056921520122</v>
+        <v>0.13028837169787577</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11637130771869525</v>
+        <v>0.13148778564187108</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="8"/>
-        <v>0.14399640410477732</v>
+        <v>0.13173817399655313</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
-        <v>0.58806402405072644</v>
+        <v>0.14446666639120115</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10974302765683018</v>
+        <v>0.60178605343235581</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="8"/>
-        <v>0.66182650138757038</v>
+        <v>0.17150517674736718</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10961321746202399</v>
+        <v>0.16702642475717111</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="8"/>
-        <v>0.11093708319753928</v>
+        <v>0.15494618454209552</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="8"/>
-        <v>0.3840554847929315</v>
+        <v>0.29305089165497716</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="8"/>
-        <v>0.7870324225792612</v>
+        <v>0.72245511814923602</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="8"/>
-        <v>0.87909047464577028</v>
+        <v>0.81763149168529736</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10934443934102982</v>
+        <v>0.82629473419958344</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="8"/>
-        <v>0.10941124774915567</v>
+        <v>0.17294380442353527</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="8"/>
-        <v>0.83538247453218006</v>
+        <v>0.17293060612114405</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ref="R10:V10" si="9">$B$2*R7*(1-Q11)+R8*Q11</f>
-        <v>0.88481022548882104</v>
+        <v>0.82576216645430611</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89007731664466472</v>
+        <v>0.82694969746595182</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89060760035149933</v>
+        <v>0.8270443675062753</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89066067637421509</v>
+        <v>0.82705190384966976</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="9"/>
-        <v>0.89066598561986798</v>
+        <v>0.82705250372285388</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1431,135 +1438,90 @@
       </c>
       <c r="B11" s="3">
         <f>B1</f>
-        <v>4.9399999999999999E-8</v>
+        <v>2.966E-7</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:O11" si="10">C10/(C10+C9)</f>
-        <v>0.1310124970296011</v>
+        <v>0.13386982188384178</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="10"/>
-        <v>0.14668493374016453</v>
+        <v>0.15822217056712501</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="10"/>
-        <v>0.14883697341285768</v>
+        <v>0.16330594047823657</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="10"/>
-        <v>0.65504969461346618</v>
+        <v>0.16439650200055236</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="10"/>
-        <v>0.95033723993703234</v>
+        <v>0.72423473709430264</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="10"/>
-        <v>0.73913487150550528</v>
+        <v>0.97071686139103897</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="10"/>
-        <v>0.96607620411026762</v>
+        <v>0.87978234234760355</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="10"/>
-        <v>0.80556280674146141</v>
+        <v>0.63451070500494755</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="10"/>
-        <v>0.42249115360023143</v>
+        <v>0.34628936023391405</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="10"/>
-        <v>0.88186275174272988</v>
+        <v>0.87195459795257924</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="10"/>
-        <v>0.98680387996704622</v>
+        <v>0.98846698402873989</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="10"/>
-        <v>0.99866447056493601</v>
+        <v>0.99907229518942886</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="10"/>
-        <v>0.9905642197061072</v>
+        <v>0.99992609559317502</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ref="P11" si="11">P10/(P10+P9)</f>
-        <v>0.93697915805097842</v>
+        <v>0.99965812333600146</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:V11" si="12">Q10/(Q10+Q9)</f>
-        <v>0.99332408209122403</v>
+        <v>0.99842033991477297</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99932827700896165</v>
+        <v>0.99987408380693599</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99993277133862657</v>
+        <v>0.99998997635335496</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99999327509229519</v>
+        <v>0.9999992021445735</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="12"/>
-        <v>0.9999993273410267</v>
+        <v>0.99999993649337693</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="12"/>
-        <v>0.99999993271763854</v>
+        <v>0.99999999494508862</v>
       </c>
       <c r="W11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>0.1310124970296011</v>
-      </c>
-      <c r="D15">
-        <v>0.14668493374016453</v>
-      </c>
-      <c r="E15">
-        <v>0.65148849982329493</v>
-      </c>
-      <c r="F15">
-        <v>0.94959590801312577</v>
-      </c>
-      <c r="G15">
-        <v>0.99472299318753021</v>
-      </c>
-      <c r="H15">
-        <v>0.99946969415598019</v>
-      </c>
-      <c r="I15">
-        <v>0.99623161876913369</v>
-      </c>
-      <c r="J15">
-        <v>0.97383021775343137</v>
-      </c>
-      <c r="K15">
-        <v>0.84295215286624348</v>
-      </c>
-      <c r="L15">
-        <v>0.999730253533889</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1575,29 +1537,6 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>0.1310124970296011</v>
-      </c>
-      <c r="D17">
-        <v>0.14668493374016453</v>
-      </c>
-      <c r="E17">
-        <v>0.14883697341285768</v>
-      </c>
-      <c r="F17">
-        <v>0.65504969461346618</v>
-      </c>
-      <c r="G17">
-        <v>0.95033723993703234</v>
-      </c>
-      <c r="H17">
-        <v>0.73913487150550528</v>
-      </c>
-      <c r="I17">
-        <v>0.96607620411026762</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
